--- a/DataTable/Entity.xlsx
+++ b/DataTable/Entity.xlsx
@@ -385,14 +385,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
